--- a/biology/Biologie cellulaire et moléculaire/Matériel_péricentriolaire/Matériel_péricentriolaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Matériel_péricentriolaire/Matériel_péricentriolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mat%C3%A9riel_p%C3%A9ricentriolaire</t>
+          <t>Matériel_péricentriolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le matériel péricentriolaire est le nuage de matériel amorphe qui entoure une paire de centrioles, le tout formant le centre organisateur des microtubules dans les cellules animales[1]. Il est composé de protéines fibrogranulaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le matériel péricentriolaire est le nuage de matériel amorphe qui entoure une paire de centrioles, le tout formant le centre organisateur des microtubules dans les cellules animales. Il est composé de protéines fibrogranulaires.
 </t>
         </is>
       </c>
